--- a/outputs/KOLKATA5.xlsx
+++ b/outputs/KOLKATA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: ABI is motivated to add information to the README to accomplish the task. The README file is clearly listed in the directory structure of the project, making it easy for ABI to locate it. ABI's comprehensive information processing style will help them to identify the README as a relevant document for the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: Scrolling down aligns with ABI's information processing style, as ABI prefers to gather comprehensive information before taking action. The page is structured and informative, providing clear visibility of the README.md file in the repository's directory. This will guide ABI to scroll down and read more information if needed, helping them take the next step confidently.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-structured, and scrolling down will allow Abi to gather more details, which she prefers before taking further actions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After scrolling down, ABI will see that the README.md file is clearly listed in the directory structure. This visibility confirms that ABI is on the right track towards finding the README file, thus making progress toward their goal. The page provides sufficient information and context to reassure ABI that they are heading in the right direction and gathering the necessary information comprehensively.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: After scrolling down, Abi will not find specific instructions or information directly related to editing the README file. The page contains a lot of information about the project, but it does not provide clear guidance on how to add information to the README. This might overwhelm Abi, given her low computer self-efficacy and preference for comprehensive information. She may not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,17 +452,17 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The README.md file is clearly listed in the directory structure and is a common file name for documentation in repositories. ABI will recognize the README.md file as the appropriate file to click on to add information. The page is structured and informative, providing clear visibility and context for ABI to take this action confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README.md file is clearly listed in the file directory, and it is a common convention on GitHub for README files to contain important project information. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will likely recognize that clicking on README.md is the appropriate next step to find the information she needs to add to it.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking on README.md, ABI will be directed to a detailed page containing all the necessary information about JabRef Bibliography Management. This page includes sections and explanations that align with ABI's need for comprehensive information processing. The detailed nature of the README.md page will reassure ABI that they have done the right thing and are indeed making progress towards their goal of adding information to the README. The clarity and structure of the content will also support ABI's confidence in their actions.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: After clicking on README.md, Abi will see the contents of the README file. However, the page does not provide explicit instructions on how to edit the README file. Given Abi's low computer self-efficacy, she might not feel confident about what to do next. Additionally, while the README contains a lot of information about the project, it does not guide her on the specific steps to add information to it, which does not align with her comprehensive information processing style. Therefore, she may not feel she is making clear progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: ABI is motivated to complete the task of adding information to the README. In order to do so, they will need to find out how to edit it. This step is crucial for achieving the overall use case, and ABI's comprehensive information processing style will lead them to seek out detailed instructions on how to edit the README file.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. This aligns with her goal of completing the task effectively.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: The pencil button is a common icon for editing, but ABI's low computer self-efficacy and risk-averse nature might make them hesitant to click on an unfamiliar icon without more explicit instructions or confirmation that it is the correct action. There is no clear indication on the page that the pencil button is specifically for editing the README.md file, which might cause ABI to be uncertain about what to do next.</t>
+Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
+Why: The pencil button is a common icon for editing, but Abi's low computer self-efficacy and risk-averse nature might make her hesitant to click it without explicit instructions or confirmation that it is the correct action. The page does not provide clear guidance on what the pencil button does, which might make Abi unsure about taking this action.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking the pencil button, ABI is taken to an editing interface with the README.md content displayed in an editable format. This clear and direct transition to an editing environment confirms to ABI that they have done the right thing and are making progress toward their goal. The interface is straightforward and provides the necessary tools and options to edit the README, which aligns with ABI's need for a structured and clear process. This will help increase ABI's confidence in their actions and ensure they have all the information needed to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README content in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward editing environment, which aligns with her motivation to complete the task and her preference for comprehensive information.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: The page provides a clear and straightforward interface for editing the README.md file. The editable text area and the buttons for "Cancel changes" and "Commit changes..." are intuitive and familiar controls for anyone who has used a text editor. This clear and structured environment aligns with ABI's comprehensive information processing style and will help them feel confident in making the necessary edits. The instructions at the bottom of the page (e.g., "Use Control + Shift + P to toggle the tab key moving focus") also provide additional guidance, making it easier for ABI to proceed with editing the file.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly shows the README content in an editable format, which is a familiar text-editing interface. Given Abi's motivation to complete her task and her comprehensive information processing style, she will understand that she can now edit the file directly. The interface is straightforward and does not require any additional technical knowledge, making it easy for Abi to proceed with editing the README.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After editing the file, ABI will see the changes they made directly in the editable text area. The presence of the "Commit changes..." button and the "Cancel changes" button provides a clear next step for ABI to save or discard their edits. The straightforward interface and clear options help confirm to ABI that they are making progress toward their goal. The visible changes in the text reassure ABI that their edits have been successfully made, aligning with their comprehensive information processing style and boosting their confidence in their actions.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After editing the file, Abi will see her changes reflected in the editable text area. This immediate feedback will confirm to her that she is making progress toward her goal of adding information to the README. The interface is straightforward and shows the changes she made, which aligns with her motivation to complete the task and her preference for comprehensive information.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: The "Preview changes" button is not explicitly visible on the page, making it unclear for ABI to know that this action is available or necessary. ABI's low computer self-efficacy and risk-averse nature mean they might be hesitant to take actions without clear guidance or instructions. Since the option is not immediately evident, ABI may not realize that they need to preview changes before committing them, leading to uncertainty about the next step.</t>
+Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
+Why: The "preview change" button is not explicitly visible on the page, and there is no clear indication or instruction that Abi should click it to preview her changes. Given Abi's low computer self-efficacy and risk-averse nature, she might not feel confident about what to do next without clear guidance. The lack of explicit instructions or a visible button might make her hesitant to proceed.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking "Preview changes," ABI will see a rendered view of the README.md file with their changes. This view provides a clear indication that their edits have been applied correctly. The presence of the "Commit changes..." button further reassures ABI that they are on the right track and making progress toward their goal. The preview offers a straightforward way for ABI to verify their changes before finalizing them, which aligns with their need for comprehensive information and boosts confidence in their actions.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "preview change," Abi will see a rendered view of the README file with her changes. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and immediate way to verify the changes, which aligns with her motivation to complete the task and her preference for comprehensive information.</t>
         </is>
       </c>
     </row>

--- a/outputs/KOLKATA5.xlsx
+++ b/outputs/KOLKATA5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub page, making it easy to locate. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it.</t>
+Why: The README file is prominently listed in the file directory on the GitHub page, making it easy to locate. ABI, who prefers to use familiar methods and gather comprehensive information, would recognize finding the README as a necessary step toward adding information to it. The clear labeling and visibility of the README file align with ABI's motivations to accomplish tasks and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory, making it straightforward for Abi to understand that scrolling down could provide additional relevant information.</t>
+Why: Scrolling down to read more information aligns with ABI's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory, making it easy for ABI to identify and locate it. This action is straightforward and does not require any unfamiliar technical skills, so ABI will know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After scrolling down, Abi will see a lot of information about the project, but it might not be immediately clear how to proceed with adding information to the README. The page contains a lot of text and various sections, which could be overwhelming. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel certain that she is making progress toward her goal without more explicit guidance.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down, ABI will see additional information about the project, but this information is not directly related to finding the README file. The README file is listed in the file directory at the top of the page, and scrolling down does not provide any further guidance or confirmation that ABI is making progress toward the goal of finding the README. ABI might feel uncertain about whether they are on the right track, as the additional content does not directly address the subgoal. This could lead to confusion and a lack of confidence in their actions.</t>
         </is>
       </c>
     </row>
@@ -452,71 +452,71 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The README.md file is clearly listed in the file directory, and it is a familiar term for most users who have some experience with GitHub or similar platforms. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would likely recognize that clicking on README.md is the next logical step to find the information she needs to add to it.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README.md file is clearly listed in the file directory at the top of the page, making it easy for ABI to identify. Given ABI's motivation to accomplish tasks and their comprehensive information processing style, they will recognize that clicking on README.md is the next logical step to access the file and add information to it. The page is straightforward and provides clear labeling, which helps ABI know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on README.md, ABI will be taken to the README file, which contains detailed information about the project. This confirms that ABI has done the right thing and is making progress toward their goal of adding information to the README. The page provides comprehensive information about the project, which aligns with ABI's information processing style, ensuring that they have all the necessary details to proceed with their task.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: ABI is motivated to accomplish the task of adding information to the README. To do this, they need to find out how to edit it. Given ABI's comprehensive information processing style, they would recognize that understanding how to edit the README is a necessary step toward achieving the overall use case. This step is logical and essential for completing the task, and ABI would consider it as part of the process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on README.md, Abi will land on a page with a lot of detailed information about the project. However, it might not be immediately clear how to proceed with adding information to the README. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel certain that she is making progress toward her goal without more explicit guidance on how to edit the README file. The page does not provide step-by-step instructions or a clear indication of how to proceed with editing, which could be confusing for Abi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to accomplish her task, and finding out how to edit the README is a logical step toward adding information to it. Given her comprehensive information processing style, she would recognize that understanding how to edit the file is necessary to achieve her overall goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+Why: The pencil button, which is used to edit the README, is not explicitly labeled or explained on the page. ABI, who has low confidence in performing unfamiliar computing tasks and prefers process-oriented learning, might not recognize the pencil icon as the edit function. Without clear instructions or labels, ABI may feel uncertain about clicking the pencil button, fearing it might not lead to the desired outcome. This lack of clarity and guidance does not align with ABI's need for explicit instructions and confidence in their actions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the pencil button, ABI will be taken to an edit interface for the README file. This interface clearly shows the content of the README in an editable format, confirming to ABI that they have done the right thing and are making progress toward their goal. The page provides a straightforward editing environment, which aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The presence of "Edit" and "Commit changes" buttons further reinforces that ABI is in the correct place to make the necessary edits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear and straightforward text editor interface for the README file, which is familiar and easy to use. ABI, who is motivated to accomplish the task and prefers comprehensive information, will recognize that they need to edit the text directly in this interface. The presence of the "Edit" and "Commit changes" buttons, along with the editable text area, makes it clear what needs to be done. This aligns with ABI's motivations and information processing style, ensuring they know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After editing the file, ABI will see their changes reflected in the text editor. This visual confirmation that the text has been modified will indicate to ABI that they have done the right thing and are making progress toward their goal. The presence of the "Commit changes" button further reinforces that ABI is on the correct path to saving their edits. The interface is straightforward and provides clear feedback, which aligns with ABI's motivations and comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The pencil button is a common icon for editing, but Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning might make her hesitant to click it without explicit instructions. The page does not provide clear guidance on what the pencil button does, which could make Abi uncertain about whether clicking it is the right action to take.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an editing interface where she can see the README content in a text editor. This clear transition to an editable format will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The interface is straightforward and provides the necessary tools for editing, aligning with her motivation to accomplish the task and her comprehensive information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear text editor interface where Abi can see the content of the README file and make changes. This straightforward layout aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The presence of familiar text editing tools and the clear display of the README content will help Abi understand that she can proceed with editing the file.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm to her that she is making progress toward her goal of adding information to the README. The interface is straightforward and shows the changes clearly, which aligns with her motivation to accomplish the task and her comprehensive information processing style. The presence of familiar text editing tools and the clear display of the README content will help Abi understand that she can proceed with editing the file.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Preview changes" button is not explicitly visible in the provided image. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not know that she needs to click "Preview changes" to see her edits. The page does not provide clear guidance or instructions on this step, which could make Abi uncertain about what to do next.</t>
+Why: The "Preview changes" button is not explicitly visible or labeled in the provided image. ABI, who has low confidence in performing unfamiliar computing tasks and prefers process-oriented learning, might not know that they need to click "Preview changes" to see their edits. Without clear instructions or visible guidance, ABI may feel uncertain about what to do next, which does not align with their need for explicit instructions and confidence in their actions. This lack of clarity could hinder ABI from taking the correct action.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and immediate way to verify the changes, aligning with her motivation to accomplish the task and her comprehensive information processing style. The interface is straightforward and shows the changes clearly, which will help Abi feel confident that she is on the right track.</t>
+Why: After clicking "Preview changes," ABI will see a rendered view of the README file with their edits included. This visual confirmation will indicate to ABI that they have done the right thing and are making progress toward their goal. The preview provides a clear and accurate representation of the changes, which aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The presence of the "Commit changes" button further reinforces that ABI is on the correct path to finalizing their edits.</t>
         </is>
       </c>
     </row>
